--- a/src/results/dataclass/bell.xlsx
+++ b/src/results/dataclass/bell.xlsx
@@ -49,10 +49,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>59</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -499,22 +499,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -543,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -576,59 +576,59 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G5" t="n">
+        <v>26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
         <v>70</v>
       </c>
-      <c r="H5" t="n">
-        <v>31</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>57</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>47</v>
@@ -643,57 +643,57 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N6" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -702,48 +702,48 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -763,19 +763,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -796,15 +796,15 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -851,22 +851,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="n">
         <v>38</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
